--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8886A83-05D9-4E85-8E4E-D9599A2D4AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9A790-7DD4-4A49-A6FF-AB08F260313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9A790-7DD4-4A49-A6FF-AB08F260313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2AF10F-23D1-485F-99BE-749609FA7081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2AF10F-23D1-485F-99BE-749609FA7081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A0BED-3946-4904-B79A-1AA1C8A093BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A0BED-3946-4904-B79A-1AA1C8A093BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B9F46-4B04-4B5E-BCA4-ED8FB5983252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B9F46-4B04-4B5E-BCA4-ED8FB5983252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF88EBEA-60E4-4A5D-AEB0-2C9C429B9062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF88EBEA-60E4-4A5D-AEB0-2C9C429B9062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84102B67-1D96-43E2-89F7-A388EA0DEA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84102B67-1D96-43E2-89F7-A388EA0DEA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ED05FF-910C-4C84-8A04-4393FFE04E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ED05FF-910C-4C84-8A04-4393FFE04E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B3A96-10D9-4F02-BF9C-48CA984FAC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B3A96-10D9-4F02-BF9C-48CA984FAC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3BF728-40FA-474C-B13D-0891120E186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3BF728-40FA-474C-B13D-0891120E186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6DBADF-7658-47B4-85C8-0B430D454E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6DBADF-7658-47B4-85C8-0B430D454E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64B0DBD-C77B-4939-8198-B292DFA88E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64B0DBD-C77B-4939-8198-B292DFA88E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667F4A07-836D-41A2-B061-1CC3224F5C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667F4A07-836D-41A2-B061-1CC3224F5C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73E7BD3-E61B-4BD0-8265-290EE5E40137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73E7BD3-E61B-4BD0-8265-290EE5E40137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A9FF0-F213-43C0-AE8D-1B0330E77A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64B0DBD-C77B-4939-8198-B292DFA88E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903E48F-5C8C-48ED-BCD0-415E98F654A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903E48F-5C8C-48ED-BCD0-415E98F654A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C485B86-1517-416C-8FFE-C0B400833A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>

--- a/inst/extdata/power capacity by province&type - backup.xlsx
+++ b/inst/extdata/power capacity by province&type - backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C485B86-1517-416C-8FFE-C0B400833A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A408EE71-C81F-4539-A61F-3E6FC9345E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -1231,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DC1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="EA2" sqref="EA2"/>
     </sheetView>
   </sheetViews>
@@ -1251,9 +1251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>285</v>
